--- a/data/trans_dic/P37A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>83,06%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>91,74%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>80,35%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>78,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78,21%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>76,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67,93%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>80,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>84,74%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>90,66%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>93,71%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>80,99%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>82,96%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>82,23%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>82,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,27%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>87,23%</t>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>82,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73,62%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,36; 91,8</t>
+          <t>67,21; 93,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,12; 95,55</t>
+          <t>78,73; 97,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,46; 97,55</t>
+          <t>77,92; 97,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,07; 87,67</t>
+          <t>64,98; 96,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,75; 89,35</t>
+          <t>65,06; 89,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,36; 89,88</t>
+          <t>66,13; 87,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>77,01; 87,7</t>
+          <t>60,3; 86,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,11; 90,51</t>
+          <t>45,86; 82,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,85; 91,56</t>
+          <t>70,23; 89,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>76,29; 90,77</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72,51; 91,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54,95; 84,92</t>
         </is>
       </c>
     </row>
@@ -747,42 +802,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,97%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>72,17%</t>
+          <t>75,16%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,19%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>68,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,7; 85,77</t>
+          <t>74,01; 86,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,57; 84,62</t>
+          <t>69,12; 84,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,72; 83,15</t>
+          <t>61,33; 81,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,18; 77,55</t>
+          <t>68,19; 83,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,61; 72,31</t>
+          <t>62,75; 76,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,12; 72,69</t>
+          <t>53,07; 68,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,37; 79,75</t>
+          <t>55,31; 70,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,41; 77,56</t>
+          <t>54,54; 70,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,1; 76,03</t>
+          <t>69,85; 79,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,63; 74,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61,38; 74,19</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65,11; 76,31</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,73%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>76,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>68,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>61,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>72,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>72,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>68,86%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,17; 84,89</t>
+          <t>64,8; 82,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,59; 81,15</t>
+          <t>65,31; 80,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,63; 84,4</t>
+          <t>68,67; 83,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,18; 75,37</t>
+          <t>69,07; 84,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,03; 70,63</t>
+          <t>66,87; 80,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,47; 68,21</t>
+          <t>64,62; 78,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,0; 77,81</t>
+          <t>61,38; 75,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,29; 74,25</t>
+          <t>53,28; 69,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,85; 74,16</t>
+          <t>67,63; 79,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>66,77; 76,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>66,88; 76,98</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63,18; 74,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,33; 84,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,19; 83,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,7; 84,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,05; 76,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,77; 73,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,51; 73,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,96; 79,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,72; 77,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>79,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77,06%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67,66%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>75,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71,82%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73,12; 83,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>72,5; 82,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69,37; 82,1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72,13; 82,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67,22; 76,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62,51; 72,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62,07; 71,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56,82; 68,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71,74; 78,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69,01; 76,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>67,3; 75,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>66,19; 74,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105358</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>96748</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102486</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>142736</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>110311</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>88515</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>90271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>142739</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>215669</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>185263</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>192757</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>285475</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85251; 118742</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>83023; 103232</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88936; 111367</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115429; 170763</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>91529; 125728</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>74843; 99118</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71248; 102508</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96361; 173578</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>187879; 238403</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>166796; 198458</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>168443; 211432</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>213063; 329292</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>344145</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>289508</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>292184</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>390094</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>315847</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>225859</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>231499</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>300863</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>659992</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>515366</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>523682</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>690958</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>315320; 367336</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>258702; 316786</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>243776; 322868</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>345689; 422486</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>283654; 346813</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>196674; 255624</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>204577; 259273</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>259026; 336954</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>613374; 699228</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>473976; 557752</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>471014; 569283</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>639250; 749245</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>247068</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>204784</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>203885</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>264474</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>307960</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>244894</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>219094</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>235984</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>555030</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>449678</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>422979</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>500456</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>212751; 272050</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>183061; 225146</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>182053; 222588</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>237445; 289366</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>281914; 338436</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>221509; 268423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>197456; 243173</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>204056; 266928</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>507180; 593611</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>416057; 479301</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>392464; 451740</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>459172; 541070</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>696572</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>591040</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>598554</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>797303</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>734118</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>559267</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>540863</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>679586</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1430690</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1150308</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1139418</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1476889</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>644380; 732969</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>551015; 626181</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>538825; 637652</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>741749; 851093</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>681832; 774556</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>516725; 595495</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>502557; 579302</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>606850; 731206</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1359764; 1486932</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1094862; 1209565</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1067608; 1197127</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1387641; 1561138</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
